--- a/Mifos Automation Excels/Client/3073-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-UPFRONT-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3073-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-UPFRONT-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -148,18 +148,9 @@
     <t>L7</t>
   </si>
   <si>
-    <t>$ 10,000</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
-    <t>$ 785.8</t>
-  </si>
-  <si>
     <t>clickonmakerepayment</t>
   </si>
   <si>
@@ -181,13 +172,25 @@
     <t>Fees Receivable(4)</t>
   </si>
   <si>
-    <t>$ 100</t>
-  </si>
-  <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
-    <t>$ 668.41</t>
+    <t>$ 10,000</t>
+  </si>
+  <si>
+    <t>Income from fees(8)</t>
+  </si>
+  <si>
+    <t>$ 100</t>
+  </si>
+  <si>
+    <t>$ 668.41</t>
+  </si>
+  <si>
+    <t>$ 785.8</t>
+  </si>
+  <si>
+    <t>$ 101.92</t>
+  </si>
+  <si>
+    <t>$ 987.72</t>
   </si>
 </sst>
 </file>
@@ -632,15 +635,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="14">
         <v>42036</v>
@@ -656,7 +659,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:XFD7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1464,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>13</v>
       </c>
@@ -1524,10 +1527,8 @@
       <c r="J2" s="9">
         <v>9214.2000000000007</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>14</v>
       </c>
@@ -1558,10 +1559,8 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1592,10 +1591,8 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -1626,8 +1623,6 @@
       <c r="J5" s="8">
         <v>10000</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1636,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1642,7 @@
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1676,7 +1671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>13</v>
       </c>
@@ -1699,12 +1694,10 @@
         <v>38</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>14</v>
       </c>
@@ -1728,9 +1721,8 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="12"/>
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1741,13 +1733,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1791,7 +1784,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>36</v>
@@ -1802,9 +1795,8 @@
       <c r="G2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1818,7 +1810,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>36</v>
@@ -1827,11 +1819,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="11"/>
+        <v>42</v>
+      </c>
       <c r="I3" s="11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1845,7 +1836,7 @@
         <v>42036</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>36</v>
@@ -1854,11 +1845,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1872,7 +1862,7 @@
         <v>42036</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>36</v>
@@ -1884,9 +1874,8 @@
         <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,12 +1951,11 @@
         <v>35</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="6"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -1983,17 +1971,68 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>47</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>76</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42005</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>77</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42005</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3073-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-UPFRONT-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3073-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-UPFRONT-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -13,14 +18,15 @@
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
     <sheet name="Acc_Disbursement" sheetId="6" r:id="rId5"/>
     <sheet name="Acc_Repayment" sheetId="8" r:id="rId6"/>
-    <sheet name="Acc_Upfront" sheetId="10" r:id="rId7"/>
+    <sheet name="Acc_Upfront2" sheetId="10" r:id="rId7"/>
+    <sheet name="Acc_Upfront1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -196,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -323,15 +329,47 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,9 +451,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,6 +503,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1733,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1884,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,55 +2055,99 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>76</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C2" s="15">
         <v>42005</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G2" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>77</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C3" s="15">
         <v>42005</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G3" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I3" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/3073-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-UPFRONT-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3073-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-UPFRONT-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -202,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,26 +446,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,23 +481,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -850,10 +811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,12 +831,13 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -915,17 +877,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -952,8 +915,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -991,17 +955,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1037,17 +1002,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1083,17 +1049,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1129,17 +1096,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1175,17 +1143,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1221,17 +1190,18 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1267,17 +1237,18 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1313,17 +1284,18 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1359,17 +1331,18 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1405,17 +1378,18 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1451,17 +1425,18 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1497,13 +1472,14 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>903.49</v>
       </c>
     </row>
@@ -1958,7 +1934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
